--- a/cardapiointegral.xlsx
+++ b/cardapiointegral.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joaoirailton/Documents/Estudos HTML5-CSS-Java Script/sistema_escolar/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A55F0FF-F447-E04D-9892-A7B680BC5F56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{016F55A4-0B0E-7542-BFEE-BD9F5A117AC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1627,15 +1627,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D366"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="200" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42:D358"/>
+    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="114" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="92.83203125" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="32.1640625" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="92.83203125" customWidth="1"/>
+    <col min="3" max="3" width="32.1640625" customWidth="1"/>
     <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4658,8 +4658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFA9715E-E737-2F4C-9139-7BDEAC0425DD}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView zoomScale="138" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
